--- a/results/epsilon/nim/Nim_EpsilonResults_1kGames_WithPolicySize.xlsx
+++ b/results/epsilon/nim/Nim_EpsilonResults_1kGames_WithPolicySize.xlsx
@@ -570,6 +570,1415 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Nim_EpsilonResults_1kGames_With!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NimWin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Nim_EpsilonResults_1kGames_With!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Nim_EpsilonResults_1kGames_With!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Nim_EpsilonResults_1kGames_With!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NimLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Nim_EpsilonResults_1kGames_With!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Nim_EpsilonResults_1kGames_With!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="15391360"/>
+        <c:axId val="217678592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15391360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="217678592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="217678592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="15391360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>606424</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -859,7 +2268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2599,5 +4010,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>